--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1083.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1083.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.019074743662217</v>
+        <v>1.185015559196472</v>
       </c>
       <c r="B1">
-        <v>2.296893188186952</v>
+        <v>2.441283941268921</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.944353741941511</v>
+        <v>2.308252334594727</v>
       </c>
       <c r="E1">
-        <v>1.275050692007433</v>
+        <v>1.186413645744324</v>
       </c>
     </row>
   </sheetData>
